--- a/GeneticAlgorithm/bin/Debug/Excel.xlsx
+++ b/GeneticAlgorithm/bin/Debug/Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="10540" windowHeight="9280" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1048,14 +1048,14 @@
   <sheetPr/>
   <dimension ref="A1:D21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="7.625" customWidth="1"/>
-    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="1" max="1" width="7.62727272727273" customWidth="1"/>
+    <col min="2" max="2" width="14.2545454545455" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1364,11 +1364,11 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1385,7 +1385,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/GeneticAlgorithm/bin/Debug/Excel.xlsx
+++ b/GeneticAlgorithm/bin/Debug/Excel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="10540" windowHeight="9280" activeTab="1"/>
+    <workbookView windowWidth="29040" windowHeight="12780" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>1#</t>
   </si>
@@ -79,6 +79,30 @@
   </si>
   <si>
     <t>21#</t>
+  </si>
+  <si>
+    <t>1|8|9|18</t>
+  </si>
+  <si>
+    <t>2|3|4</t>
+  </si>
+  <si>
+    <t>5|12</t>
+  </si>
+  <si>
+    <t>6|7|11</t>
+  </si>
+  <si>
+    <t>10|17</t>
+  </si>
+  <si>
+    <t>13|14|21</t>
+  </si>
+  <si>
+    <t>15|20</t>
+  </si>
+  <si>
+    <t>16|19</t>
   </si>
 </sst>
 </file>
@@ -86,10 +110,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -101,61 +125,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,9 +162,99 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,67 +267,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -253,31 +277,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -289,55 +391,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -349,25 +433,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -379,61 +445,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -444,6 +468,41 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -462,35 +521,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -510,37 +545,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,145 +576,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1052,10 +1076,10 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="7.62727272727273" customWidth="1"/>
-    <col min="2" max="2" width="14.2545454545455" customWidth="1"/>
+    <col min="1" max="1" width="7.625" customWidth="1"/>
+    <col min="2" max="2" width="14.2583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -1362,14 +1386,55 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1385,7 +1450,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
